--- a/xlsx/公开市场操作_intext.xlsx
+++ b/xlsx/公开市场操作_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中央银行</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_公开市场操作</t>
+    <t>政策_政策_货币政策_公开市场操作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8A%A8%E6%80%A7</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%82%B5</t>
   </si>
   <si>
-    <t>公債</t>
+    <t>公债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E9%93%B6%E8%A1%8C</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E8%B2%B7%E5%9B%9E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>附買回協議</t>
+    <t>附买回协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C%E7%A5%A8%E6%8D%AE</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%8C%96%E5%AF%AC%E9%AC%86</t>
   </si>
   <si>
-    <t>量化寬鬆</t>
+    <t>量化宽松</t>
   </si>
 </sst>
 </file>
